--- a/219-suppression-du-statut-juridique-des-structures/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/219-suppression-du-statut-juridique-des-structures/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-05T09:11:59+00:00</t>
+    <t>2024-12-05T09:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
